--- a/data/pca/factorExposure/factorExposure_2017-07-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0239200214435012</v>
+        <v>-0.00825703209769404</v>
       </c>
       <c r="C2">
-        <v>0.0007483819646095825</v>
+        <v>0.04466278735232804</v>
       </c>
       <c r="D2">
-        <v>0.02054302356200331</v>
+        <v>-0.02971592394215729</v>
       </c>
       <c r="E2">
-        <v>0.01114443630610393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03240915984080653</v>
+      </c>
+      <c r="F2">
+        <v>-0.009274655232045043</v>
+      </c>
+      <c r="G2">
+        <v>0.07423217836947908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01715287848469402</v>
+        <v>-0.05043097242946842</v>
       </c>
       <c r="C3">
-        <v>0.057813237578143</v>
+        <v>0.07755777527401313</v>
       </c>
       <c r="D3">
-        <v>0.0311897689511275</v>
+        <v>-0.01613273535423375</v>
       </c>
       <c r="E3">
-        <v>0.01492626928022623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1050524141859536</v>
+      </c>
+      <c r="F3">
+        <v>-0.02984089730711477</v>
+      </c>
+      <c r="G3">
+        <v>0.1552285864319352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02344002965694477</v>
+        <v>-0.05850510897007521</v>
       </c>
       <c r="C4">
-        <v>0.01592963498148538</v>
+        <v>0.06544112193600522</v>
       </c>
       <c r="D4">
-        <v>0.06503321707119614</v>
+        <v>-0.02390280695670667</v>
       </c>
       <c r="E4">
-        <v>-0.01227247099977259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02430060622323537</v>
+      </c>
+      <c r="F4">
+        <v>-0.008369895374328975</v>
+      </c>
+      <c r="G4">
+        <v>0.07480457569556304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01516235097839038</v>
+        <v>-0.03859932952246829</v>
       </c>
       <c r="C6">
-        <v>0.007892261943156951</v>
+        <v>0.05338587653206103</v>
       </c>
       <c r="D6">
-        <v>0.08469529752658168</v>
+        <v>-0.01649949011163464</v>
       </c>
       <c r="E6">
-        <v>-0.006769045966042632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02584703299048836</v>
+      </c>
+      <c r="F6">
+        <v>-0.01301347465010671</v>
+      </c>
+      <c r="G6">
+        <v>0.05537052561499026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01104860021883894</v>
+        <v>-0.01984349386300318</v>
       </c>
       <c r="C7">
-        <v>0.007538086665717509</v>
+        <v>0.04092305684348106</v>
       </c>
       <c r="D7">
-        <v>0.04038676639098359</v>
+        <v>-0.01310300105827661</v>
       </c>
       <c r="E7">
-        <v>-0.05852075610980752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.00553097142317486</v>
+      </c>
+      <c r="F7">
+        <v>0.003685455274329158</v>
+      </c>
+      <c r="G7">
+        <v>0.1153453012461367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>8.77332868938815e-05</v>
+        <v>-0.001099524018968118</v>
       </c>
       <c r="C8">
-        <v>-0.001217073331606799</v>
+        <v>0.02167345318573558</v>
       </c>
       <c r="D8">
-        <v>0.002938879513495853</v>
+        <v>-0.003818495155758667</v>
       </c>
       <c r="E8">
-        <v>-0.00761337298306587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02279079741585205</v>
+      </c>
+      <c r="F8">
+        <v>-0.01734516233328974</v>
+      </c>
+      <c r="G8">
+        <v>0.04558750376795269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01638738032307145</v>
+        <v>-0.03392030205346232</v>
       </c>
       <c r="C9">
-        <v>0.01881094403959693</v>
+        <v>0.04631248222044164</v>
       </c>
       <c r="D9">
-        <v>0.04936513968259477</v>
+        <v>-0.01644194094304212</v>
       </c>
       <c r="E9">
-        <v>-0.001559432395486096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01727731272833663</v>
+      </c>
+      <c r="F9">
+        <v>-0.01393536856457179</v>
+      </c>
+      <c r="G9">
+        <v>0.07922170187922148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02131063346211357</v>
+        <v>-0.09502196430098828</v>
       </c>
       <c r="C10">
-        <v>0.169070680934578</v>
+        <v>-0.1844010049407283</v>
       </c>
       <c r="D10">
-        <v>-0.1000758934075664</v>
+        <v>0.01616878248828839</v>
       </c>
       <c r="E10">
-        <v>0.009729322165068334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01580954031909013</v>
+      </c>
+      <c r="F10">
+        <v>0.01926313892595514</v>
+      </c>
+      <c r="G10">
+        <v>0.05381760303207779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0006320544657360934</v>
+        <v>-0.03412383285212224</v>
       </c>
       <c r="C11">
-        <v>0.00467658915862789</v>
+        <v>0.05428397012289472</v>
       </c>
       <c r="D11">
-        <v>0.04220682665293363</v>
+        <v>-0.002565874438032204</v>
       </c>
       <c r="E11">
-        <v>0.006768360797303417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009719793159348681</v>
+      </c>
+      <c r="F11">
+        <v>-0.02221766488944448</v>
+      </c>
+      <c r="G11">
+        <v>0.06147637692778858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.00634928995049363</v>
+        <v>-0.03621192379583078</v>
       </c>
       <c r="C12">
-        <v>0.01145545336675796</v>
+        <v>0.04909565178921101</v>
       </c>
       <c r="D12">
-        <v>0.04832168259472212</v>
+        <v>-0.006230316044722565</v>
       </c>
       <c r="E12">
-        <v>-0.004594300419799207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0002076859308652566</v>
+      </c>
+      <c r="F12">
+        <v>-0.002029420253519745</v>
+      </c>
+      <c r="G12">
+        <v>0.05751756809418649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02380349836909081</v>
+        <v>-0.01571484541078069</v>
       </c>
       <c r="C13">
-        <v>0.01990168968158143</v>
+        <v>0.03725616231011852</v>
       </c>
       <c r="D13">
-        <v>-0.001372236623545016</v>
+        <v>-0.02612137065464993</v>
       </c>
       <c r="E13">
-        <v>0.009526952507045557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02908972643483371</v>
+      </c>
+      <c r="F13">
+        <v>-0.007982662735003802</v>
+      </c>
+      <c r="G13">
+        <v>0.09288511635288972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008628257259276755</v>
+        <v>-0.008086129028738372</v>
       </c>
       <c r="C14">
-        <v>0.01584580575987713</v>
+        <v>0.02579529339279816</v>
       </c>
       <c r="D14">
-        <v>0.006320702357148079</v>
+        <v>-0.009229516127567557</v>
       </c>
       <c r="E14">
-        <v>-0.007920048691805133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.001400408250154518</v>
+      </c>
+      <c r="F14">
+        <v>0.003257955554342106</v>
+      </c>
+      <c r="G14">
+        <v>0.07893061984801496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.00143013747163051</v>
+        <v>-0.03344089468713184</v>
       </c>
       <c r="C16">
-        <v>0.01039341996375649</v>
+        <v>0.04844913982165576</v>
       </c>
       <c r="D16">
-        <v>0.04907518240233404</v>
+        <v>-0.002049149515278171</v>
       </c>
       <c r="E16">
-        <v>-0.00369531374666761</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.008077085215475562</v>
+      </c>
+      <c r="F16">
+        <v>-0.003363845601790434</v>
+      </c>
+      <c r="G16">
+        <v>0.06562451463850057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01475038079793861</v>
+        <v>-0.02245896751751215</v>
       </c>
       <c r="C19">
-        <v>0.02297207015584609</v>
+        <v>0.05049919630330378</v>
       </c>
       <c r="D19">
-        <v>0.0174500602332512</v>
+        <v>-0.01805458295716602</v>
       </c>
       <c r="E19">
-        <v>-0.003786157955896881</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06462657714939506</v>
+      </c>
+      <c r="F19">
+        <v>-0.02146324703764048</v>
+      </c>
+      <c r="G19">
+        <v>0.1068127187941136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01058878650381267</v>
+        <v>-0.01448621179374333</v>
       </c>
       <c r="C20">
-        <v>0.006943264808390739</v>
+        <v>0.03539654375801282</v>
       </c>
       <c r="D20">
-        <v>0.0127124501941313</v>
+        <v>-0.01367911491071524</v>
       </c>
       <c r="E20">
-        <v>0.0120802237758997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02787895002272591</v>
+      </c>
+      <c r="F20">
+        <v>0.003878478208976038</v>
+      </c>
+      <c r="G20">
+        <v>0.07838922481485409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01491895584978936</v>
+        <v>-0.01331489636404606</v>
       </c>
       <c r="C21">
-        <v>0.0202519136996163</v>
+        <v>0.03913881789886633</v>
       </c>
       <c r="D21">
-        <v>0.02270856614214898</v>
+        <v>-0.01798250262037968</v>
       </c>
       <c r="E21">
-        <v>-0.009723685146982651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0400774298057487</v>
+      </c>
+      <c r="F21">
+        <v>-0.001577286943838476</v>
+      </c>
+      <c r="G21">
+        <v>0.1126158179638356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004490771414414129</v>
+        <v>-0.02737626314121406</v>
       </c>
       <c r="C24">
-        <v>-0.000362576345206314</v>
+        <v>0.05130557870475433</v>
       </c>
       <c r="D24">
-        <v>0.04356730286694629</v>
+        <v>-0.007387415629052157</v>
       </c>
       <c r="E24">
-        <v>0.0004917073059299256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005471639043450384</v>
+      </c>
+      <c r="F24">
+        <v>-0.01481706737880281</v>
+      </c>
+      <c r="G24">
+        <v>0.06612716866685174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01230071693582405</v>
+        <v>-0.04211043280876807</v>
       </c>
       <c r="C25">
-        <v>0.01697551954769425</v>
+        <v>0.0580709302482557</v>
       </c>
       <c r="D25">
-        <v>0.04500722686055143</v>
+        <v>-0.01138409588126326</v>
       </c>
       <c r="E25">
-        <v>7.309185511466825e-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.000835356317440677</v>
+      </c>
+      <c r="F25">
+        <v>-0.01028044173398513</v>
+      </c>
+      <c r="G25">
+        <v>0.07205409145672313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02351588361178402</v>
+        <v>-0.01582122219815905</v>
       </c>
       <c r="C26">
-        <v>0.01253009542018943</v>
+        <v>0.008893435222770932</v>
       </c>
       <c r="D26">
-        <v>-0.002665686256787815</v>
+        <v>-0.02341194886340704</v>
       </c>
       <c r="E26">
-        <v>-0.007254807243905452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002700599451212734</v>
+      </c>
+      <c r="F26">
+        <v>0.007380024930841798</v>
+      </c>
+      <c r="G26">
+        <v>0.06379147449418469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0441399873596456</v>
+        <v>-0.1197763186133304</v>
       </c>
       <c r="C28">
-        <v>0.2411072672425771</v>
+        <v>-0.2355940272728897</v>
       </c>
       <c r="D28">
-        <v>-0.1499488050842865</v>
+        <v>0.006839656154718094</v>
       </c>
       <c r="E28">
-        <v>-0.01268224438848119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.004405356132757957</v>
+      </c>
+      <c r="F28">
+        <v>0.01772036038152119</v>
+      </c>
+      <c r="G28">
+        <v>0.07249868026819233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009016502455835209</v>
+        <v>-0.01056369110396879</v>
       </c>
       <c r="C29">
-        <v>0.02032256873266189</v>
+        <v>0.02028839916380036</v>
       </c>
       <c r="D29">
-        <v>0.004212392279965779</v>
+        <v>-0.007979792354713055</v>
       </c>
       <c r="E29">
-        <v>-0.003900914062701221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.003657884633865956</v>
+      </c>
+      <c r="F29">
+        <v>0.01353667961211691</v>
+      </c>
+      <c r="G29">
+        <v>0.07094457733967539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02374037645719987</v>
+        <v>-0.04306911044611909</v>
       </c>
       <c r="C30">
-        <v>0.0009454328906323918</v>
+        <v>0.0659716280125744</v>
       </c>
       <c r="D30">
-        <v>0.05785707628619936</v>
+        <v>-0.02896677552710112</v>
       </c>
       <c r="E30">
-        <v>0.04961884479521567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05274579087530464</v>
+      </c>
+      <c r="F30">
+        <v>-0.05015489195973771</v>
+      </c>
+      <c r="G30">
+        <v>0.07932309521046856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01004954449520526</v>
+        <v>-0.05355498997217793</v>
       </c>
       <c r="C31">
-        <v>0.04208887589721724</v>
+        <v>0.03552285941542976</v>
       </c>
       <c r="D31">
-        <v>0.04575934223263928</v>
+        <v>-0.00314178919350094</v>
       </c>
       <c r="E31">
-        <v>-0.009517958758258642</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.005974255850165653</v>
+      </c>
+      <c r="F31">
+        <v>0.03963081600873564</v>
+      </c>
+      <c r="G31">
+        <v>0.06700877330768906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005692407972666251</v>
+        <v>0.0005927900774669754</v>
       </c>
       <c r="C32">
-        <v>0.01977269674468143</v>
+        <v>0.02661407877925505</v>
       </c>
       <c r="D32">
-        <v>-0.009440829051376188</v>
+        <v>0.003881675239673634</v>
       </c>
       <c r="E32">
-        <v>-0.05058777779174256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0155744188534491</v>
+      </c>
+      <c r="F32">
+        <v>-0.04264065626531686</v>
+      </c>
+      <c r="G32">
+        <v>0.08879173752120538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01414924779312023</v>
+        <v>-0.02751896661136083</v>
       </c>
       <c r="C33">
-        <v>0.02544777930344394</v>
+        <v>0.0491795797996873</v>
       </c>
       <c r="D33">
-        <v>0.02798991295890415</v>
+        <v>-0.01534909384297003</v>
       </c>
       <c r="E33">
-        <v>0.03093771214733229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03376641885840622</v>
+      </c>
+      <c r="F33">
+        <v>-0.01786082785153336</v>
+      </c>
+      <c r="G33">
+        <v>0.1040789847574026</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003896880213637884</v>
+        <v>-0.0393706282271744</v>
       </c>
       <c r="C34">
-        <v>0.01769242032120737</v>
+        <v>0.06273430379936368</v>
       </c>
       <c r="D34">
-        <v>0.05063200257967614</v>
+        <v>0.004276208858340225</v>
       </c>
       <c r="E34">
-        <v>-0.008287633442931859</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0001914658700532365</v>
+      </c>
+      <c r="F34">
+        <v>-0.02194691829708738</v>
+      </c>
+      <c r="G34">
+        <v>0.07382383619169811</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01321852552417307</v>
+        <v>-0.01498244982762847</v>
       </c>
       <c r="C36">
-        <v>0.02084727858042673</v>
+        <v>0.009335988698018539</v>
       </c>
       <c r="D36">
-        <v>0.002232175039768842</v>
+        <v>-0.01178743184889641</v>
       </c>
       <c r="E36">
-        <v>-0.002515709195847841</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.002031077765196021</v>
+      </c>
+      <c r="F36">
+        <v>0.00709887226513926</v>
+      </c>
+      <c r="G36">
+        <v>0.05944229471270558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003088144299846343</v>
+        <v>-0.03290068049741177</v>
       </c>
       <c r="C38">
-        <v>0.03558320741021689</v>
+        <v>0.02882164438513171</v>
       </c>
       <c r="D38">
-        <v>0.03641578489882014</v>
+        <v>0.007769847845561819</v>
       </c>
       <c r="E38">
-        <v>-0.004695869265039806</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002204790798100097</v>
+      </c>
+      <c r="F38">
+        <v>0.01497412834257155</v>
+      </c>
+      <c r="G38">
+        <v>0.06591607099089838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004558832703775913</v>
+        <v>-0.03520513290386743</v>
       </c>
       <c r="C39">
-        <v>-0.02121008925309565</v>
+        <v>0.08085564408242506</v>
       </c>
       <c r="D39">
-        <v>0.08527249931229669</v>
+        <v>-0.0119859002004522</v>
       </c>
       <c r="E39">
-        <v>0.013412071679639</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02129864766684115</v>
+      </c>
+      <c r="F39">
+        <v>-0.02708654246540538</v>
+      </c>
+      <c r="G39">
+        <v>0.06294361838185246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01259019750685829</v>
+        <v>-0.01745133471915835</v>
       </c>
       <c r="C40">
-        <v>0.02077218452012424</v>
+        <v>0.03404449065740377</v>
       </c>
       <c r="D40">
-        <v>0.02556323991517966</v>
+        <v>-0.01414551057051919</v>
       </c>
       <c r="E40">
-        <v>-0.001545556713282434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02414728153509043</v>
+      </c>
+      <c r="F40">
+        <v>-0.0129995844574152</v>
+      </c>
+      <c r="G40">
+        <v>0.07324979529443656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006473509999608925</v>
+        <v>-0.01773530462724681</v>
       </c>
       <c r="C41">
-        <v>0.0218895364750995</v>
+        <v>0.001629377721195691</v>
       </c>
       <c r="D41">
-        <v>-0.00900896828096664</v>
+        <v>-0.003768509889563887</v>
       </c>
       <c r="E41">
-        <v>-0.002741556362971727</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0004671979921272332</v>
+      </c>
+      <c r="F41">
+        <v>0.01234206481926445</v>
+      </c>
+      <c r="G41">
+        <v>0.04727615294901415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09454242916512844</v>
+        <v>-0.01164127379894375</v>
       </c>
       <c r="C42">
-        <v>-0.0140342364966884</v>
+        <v>0.03823520232281373</v>
       </c>
       <c r="D42">
-        <v>0.2755721152777206</v>
+        <v>-0.09364216327605891</v>
       </c>
       <c r="E42">
-        <v>0.4265647742467165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02797780708296257</v>
+      </c>
+      <c r="F42">
+        <v>0.04146422099428674</v>
+      </c>
+      <c r="G42">
+        <v>-0.1602791154287456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0077226448034883</v>
+        <v>-0.03303307863812975</v>
       </c>
       <c r="C43">
-        <v>0.0259210147765761</v>
+        <v>0.01484823926862644</v>
       </c>
       <c r="D43">
-        <v>-0.008653099430444828</v>
+        <v>-0.005379616119381586</v>
       </c>
       <c r="E43">
-        <v>0.003394856440291382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01268135253244112</v>
+      </c>
+      <c r="F43">
+        <v>0.004512859433792206</v>
+      </c>
+      <c r="G43">
+        <v>0.07073814199744392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002543628571963368</v>
+        <v>-0.01445160008855999</v>
       </c>
       <c r="C44">
-        <v>0.002448681996185526</v>
+        <v>0.05047337610737213</v>
       </c>
       <c r="D44">
-        <v>0.03366834835829183</v>
+        <v>-0.006502358513402232</v>
       </c>
       <c r="E44">
-        <v>-0.004540572661263853</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01940887838265088</v>
+      </c>
+      <c r="F44">
+        <v>0.003447087384141764</v>
+      </c>
+      <c r="G44">
+        <v>0.08718260879540082</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01136965785765578</v>
+        <v>-0.007374653605138661</v>
       </c>
       <c r="C46">
-        <v>0.01564741706805518</v>
+        <v>0.01675036079664254</v>
       </c>
       <c r="D46">
-        <v>0.008716983512164487</v>
+        <v>-0.01187494244237242</v>
       </c>
       <c r="E46">
-        <v>0.001406189190060457</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001794626264503401</v>
+      </c>
+      <c r="F46">
+        <v>0.01613136637385736</v>
+      </c>
+      <c r="G46">
+        <v>0.07235263486971222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004717026892547898</v>
+        <v>-0.07908209939682086</v>
       </c>
       <c r="C47">
-        <v>0.05245399999475789</v>
+        <v>0.06381868511741456</v>
       </c>
       <c r="D47">
-        <v>0.06728110749329072</v>
+        <v>0.00544382148100144</v>
       </c>
       <c r="E47">
-        <v>-0.00438422199746762</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01022286384081064</v>
+      </c>
+      <c r="F47">
+        <v>0.0549441188558759</v>
+      </c>
+      <c r="G47">
+        <v>0.06501450542721862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004158916792254005</v>
+        <v>-0.02097336294231971</v>
       </c>
       <c r="C48">
-        <v>0.02611032010890926</v>
+        <v>0.01081609405455491</v>
       </c>
       <c r="D48">
-        <v>0.01418578372745258</v>
+        <v>-0.001027357867723829</v>
       </c>
       <c r="E48">
-        <v>-0.00151196457971789</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002170825330774364</v>
+      </c>
+      <c r="F48">
+        <v>0.02060545856530387</v>
+      </c>
+      <c r="G48">
+        <v>0.06689791377104772</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.006743421062536292</v>
+        <v>-0.07698178475126465</v>
       </c>
       <c r="C50">
-        <v>0.05414041923483774</v>
+        <v>0.06795510473166562</v>
       </c>
       <c r="D50">
-        <v>0.06984690020439148</v>
+        <v>0.003121695111727074</v>
       </c>
       <c r="E50">
-        <v>-0.03179653660809503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01065951597282184</v>
+      </c>
+      <c r="F50">
+        <v>0.05852187588066333</v>
+      </c>
+      <c r="G50">
+        <v>0.08352380629447186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007435409653690424</v>
+        <v>-0.01379625290864874</v>
       </c>
       <c r="C51">
-        <v>0.01643190602860848</v>
+        <v>0.0331496414687537</v>
       </c>
       <c r="D51">
-        <v>-0.001053948334395483</v>
+        <v>-0.0100424648527976</v>
       </c>
       <c r="E51">
-        <v>-0.00476601810521392</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01731976286920812</v>
+      </c>
+      <c r="F51">
+        <v>-0.02514072413015516</v>
+      </c>
+      <c r="G51">
+        <v>0.1034703086647657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007712004724666492</v>
+        <v>-0.0834601254535388</v>
       </c>
       <c r="C53">
-        <v>0.06320738871726023</v>
+        <v>0.08035889248723629</v>
       </c>
       <c r="D53">
-        <v>0.1237378507803376</v>
+        <v>0.00457752010532996</v>
       </c>
       <c r="E53">
-        <v>-0.01085012668374127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02979231880456776</v>
+      </c>
+      <c r="F53">
+        <v>0.05939055421686985</v>
+      </c>
+      <c r="G53">
+        <v>0.05780997523394413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.002064428818416223</v>
+        <v>-0.03008916121624628</v>
       </c>
       <c r="C54">
-        <v>0.03761474335971799</v>
+        <v>0.01649517376550569</v>
       </c>
       <c r="D54">
-        <v>-0.001256516245509101</v>
+        <v>0.001898787668111777</v>
       </c>
       <c r="E54">
-        <v>-0.003223391402985144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.00754038577069973</v>
+      </c>
+      <c r="F54">
+        <v>0.005178863050293214</v>
+      </c>
+      <c r="G54">
+        <v>0.07674027388154728</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003888741388318745</v>
+        <v>-0.07349442445487077</v>
       </c>
       <c r="C55">
-        <v>0.04221386193256911</v>
+        <v>0.06712897913143197</v>
       </c>
       <c r="D55">
-        <v>0.1040895158134736</v>
+        <v>0.005673289129293576</v>
       </c>
       <c r="E55">
-        <v>0.002337824838683812</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.0260516214989333</v>
+      </c>
+      <c r="F55">
+        <v>0.05841389382170865</v>
+      </c>
+      <c r="G55">
+        <v>0.03669705887219932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.00690683830122557</v>
+        <v>-0.140814402426846</v>
       </c>
       <c r="C56">
-        <v>0.08872318028979202</v>
+        <v>0.106607206174457</v>
       </c>
       <c r="D56">
-        <v>0.1585916204369317</v>
+        <v>0.01284852985547408</v>
       </c>
       <c r="E56">
-        <v>0.0008919643671701839</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03414869217189576</v>
+      </c>
+      <c r="F56">
+        <v>0.07786966281987574</v>
+      </c>
+      <c r="G56">
+        <v>0.0160267991458151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02383904477212561</v>
+        <v>-0.007315256814690053</v>
       </c>
       <c r="C57">
-        <v>0.01298607698494203</v>
+        <v>0.009103306720792587</v>
       </c>
       <c r="D57">
-        <v>0.04124549572232848</v>
+        <v>-0.02360000312397109</v>
       </c>
       <c r="E57">
-        <v>0.003848955712002963</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02441337297180671</v>
+      </c>
+      <c r="F57">
+        <v>-0.009704232607577525</v>
+      </c>
+      <c r="G57">
+        <v>0.02794240425823472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0169679813703006</v>
+        <v>-0.06797534840310007</v>
       </c>
       <c r="C58">
-        <v>0.08675440101470473</v>
+        <v>0.04203067342549644</v>
       </c>
       <c r="D58">
-        <v>0.1159498769564443</v>
+        <v>-0.02664627304601703</v>
       </c>
       <c r="E58">
-        <v>0.4113880773106244</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.933220571467116</v>
+      </c>
+      <c r="F58">
+        <v>0.2479939832719777</v>
+      </c>
+      <c r="G58">
+        <v>-0.09976077808683209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.04171351922235101</v>
+        <v>-0.1568715870358683</v>
       </c>
       <c r="C59">
-        <v>0.2586110347214621</v>
+        <v>-0.207748650751417</v>
       </c>
       <c r="D59">
-        <v>-0.1534282649567195</v>
+        <v>0.01259227475695907</v>
       </c>
       <c r="E59">
-        <v>-0.006540078977490425</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01550791211517452</v>
+      </c>
+      <c r="F59">
+        <v>-0.004963991236856015</v>
+      </c>
+      <c r="G59">
+        <v>0.04032233788660401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.0419416201148125</v>
+        <v>-0.2873231104643755</v>
       </c>
       <c r="C60">
-        <v>0.1620765374998573</v>
+        <v>0.09695894235572944</v>
       </c>
       <c r="D60">
-        <v>0.07924640908030102</v>
+        <v>-0.01325747883623843</v>
       </c>
       <c r="E60">
-        <v>-4.815274411392703e-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.002427512396052228</v>
+      </c>
+      <c r="F60">
+        <v>-0.3524031619134967</v>
+      </c>
+      <c r="G60">
+        <v>-0.1387600704256773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003198609971808205</v>
+        <v>-0.03649193768950085</v>
       </c>
       <c r="C61">
-        <v>0.006209933812476315</v>
+        <v>0.06659558031506534</v>
       </c>
       <c r="D61">
-        <v>0.06075160887146872</v>
+        <v>-0.005425467425472904</v>
       </c>
       <c r="E61">
-        <v>-0.0003390144463010371</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.0137692630552123</v>
+      </c>
+      <c r="F61">
+        <v>-0.01578434601183677</v>
+      </c>
+      <c r="G61">
+        <v>0.06410180882438661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007857290882771303</v>
+        <v>-0.01423643859212236</v>
       </c>
       <c r="C63">
-        <v>0.00847515884243083</v>
+        <v>0.0294205715660938</v>
       </c>
       <c r="D63">
-        <v>0.01118079734625121</v>
+        <v>-0.008107509244655696</v>
       </c>
       <c r="E63">
-        <v>-0.008795869047594588</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001594165935722928</v>
+      </c>
+      <c r="F63">
+        <v>0.01690596741590042</v>
+      </c>
+      <c r="G63">
+        <v>0.07118431761268525</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.009096937323173356</v>
+        <v>-0.04647310385860087</v>
       </c>
       <c r="C64">
-        <v>0.02924204137531188</v>
+        <v>0.04685327856372572</v>
       </c>
       <c r="D64">
-        <v>0.06150802201378801</v>
+        <v>-0.006415538121245136</v>
       </c>
       <c r="E64">
-        <v>0.01537565548491988</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.002391936362386033</v>
+      </c>
+      <c r="F64">
+        <v>-0.004914617673688237</v>
+      </c>
+      <c r="G64">
+        <v>0.06097088180302624</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01691029180615203</v>
+        <v>-0.07859696716933827</v>
       </c>
       <c r="C65">
-        <v>0.006071321854594239</v>
+        <v>0.05929166653264339</v>
       </c>
       <c r="D65">
-        <v>0.1000609180821268</v>
+        <v>-0.01633368044994217</v>
       </c>
       <c r="E65">
-        <v>-0.00930726902141087</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02751482223360644</v>
+      </c>
+      <c r="F65">
+        <v>-0.03132455038612647</v>
+      </c>
+      <c r="G65">
+        <v>0.02408417682829986</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004419490047559187</v>
+        <v>-0.051175851510212</v>
       </c>
       <c r="C66">
-        <v>-0.01625630808648466</v>
+        <v>0.1119499864278852</v>
       </c>
       <c r="D66">
-        <v>0.1097596738042045</v>
+        <v>-0.0120769538783925</v>
       </c>
       <c r="E66">
-        <v>0.0108169406952043</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02950254913430486</v>
+      </c>
+      <c r="F66">
+        <v>-0.03556275769731525</v>
+      </c>
+      <c r="G66">
+        <v>0.07310658821011647</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003687184487017871</v>
+        <v>-0.05562827039975633</v>
       </c>
       <c r="C67">
-        <v>0.05735396149131364</v>
+        <v>0.03181233655703549</v>
       </c>
       <c r="D67">
-        <v>0.0421553145927345</v>
+        <v>0.005988934294538699</v>
       </c>
       <c r="E67">
-        <v>-0.006278854588928437</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004569177496850409</v>
+      </c>
+      <c r="F67">
+        <v>0.01604658414582604</v>
+      </c>
+      <c r="G67">
+        <v>0.06104626766954066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05795432490968695</v>
+        <v>-0.1437738290868998</v>
       </c>
       <c r="C68">
-        <v>0.2325512234912155</v>
+        <v>-0.2724273394461025</v>
       </c>
       <c r="D68">
-        <v>-0.1582192415017929</v>
+        <v>-0.005150283729720266</v>
       </c>
       <c r="E68">
-        <v>0.01425604002700577</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01197209312952176</v>
+      </c>
+      <c r="F68">
+        <v>0.02776186121960492</v>
+      </c>
+      <c r="G68">
+        <v>0.02554826119409161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0006924963372087224</v>
+        <v>-0.08214646865628858</v>
       </c>
       <c r="C69">
-        <v>0.04085167103582189</v>
+        <v>0.06677202272898178</v>
       </c>
       <c r="D69">
-        <v>0.06759330778108581</v>
+        <v>0.009539348795324316</v>
       </c>
       <c r="E69">
-        <v>-0.008710870126459821</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02699737560708916</v>
+      </c>
+      <c r="F69">
+        <v>0.03865211777991879</v>
+      </c>
+      <c r="G69">
+        <v>0.06746907787983056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.0431975560432605</v>
+        <v>-0.1324532260868148</v>
       </c>
       <c r="C71">
-        <v>0.2065936138817997</v>
+        <v>-0.2302176666126483</v>
       </c>
       <c r="D71">
-        <v>-0.1277988472347247</v>
+        <v>0.003560584425411472</v>
       </c>
       <c r="E71">
-        <v>0.00760862020045301</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03001753732643542</v>
+      </c>
+      <c r="F71">
+        <v>0.01267208459219028</v>
+      </c>
+      <c r="G71">
+        <v>0.05265901409194616</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0005029330533506797</v>
+        <v>-0.08670116741677077</v>
       </c>
       <c r="C72">
-        <v>0.04193596397487737</v>
+        <v>0.07142443912712154</v>
       </c>
       <c r="D72">
-        <v>0.1174941471013113</v>
+        <v>0.007849979972341463</v>
       </c>
       <c r="E72">
-        <v>-0.002957205633930124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.0008643407031882876</v>
+      </c>
+      <c r="F72">
+        <v>-0.04577222250485434</v>
+      </c>
+      <c r="G72">
+        <v>0.05458763623188119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05495532093279074</v>
+        <v>-0.3825998594201516</v>
       </c>
       <c r="C73">
-        <v>0.1823909701689669</v>
+        <v>0.1142533179986509</v>
       </c>
       <c r="D73">
-        <v>0.1595627648768371</v>
+        <v>-0.02312586753765963</v>
       </c>
       <c r="E73">
-        <v>0.0412319452080763</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07042223375663911</v>
+      </c>
+      <c r="F73">
+        <v>-0.5648850675602686</v>
+      </c>
+      <c r="G73">
+        <v>-0.2172356784088988</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.004014957222202928</v>
+        <v>-0.1095458347944476</v>
       </c>
       <c r="C74">
-        <v>0.07583868269835846</v>
+        <v>0.1104390125165137</v>
       </c>
       <c r="D74">
-        <v>0.1602315158527747</v>
+        <v>0.009980353818417146</v>
       </c>
       <c r="E74">
-        <v>0.01180920338562994</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0137780566521008</v>
+      </c>
+      <c r="F74">
+        <v>0.07232239443460671</v>
+      </c>
+      <c r="G74">
+        <v>0.06177420148540509</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01333617558948862</v>
+        <v>-0.2512350334247073</v>
       </c>
       <c r="C75">
-        <v>0.1782551209976227</v>
+        <v>0.1465400552237186</v>
       </c>
       <c r="D75">
-        <v>0.2936086068679843</v>
+        <v>0.03078425753848758</v>
       </c>
       <c r="E75">
-        <v>0.01709157383560972</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05859583526643858</v>
+      </c>
+      <c r="F75">
+        <v>0.180703117405243</v>
+      </c>
+      <c r="G75">
+        <v>-0.04638901331518051</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.001106749095070568</v>
+        <v>-0.1241431112867147</v>
       </c>
       <c r="C76">
-        <v>0.1118500650226055</v>
+        <v>0.1111509666154474</v>
       </c>
       <c r="D76">
-        <v>0.227463406363123</v>
+        <v>0.02041786425807884</v>
       </c>
       <c r="E76">
-        <v>-0.03048436743255333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04262638159391648</v>
+      </c>
+      <c r="F76">
+        <v>0.1131426245700398</v>
+      </c>
+      <c r="G76">
+        <v>0.04041715623882954</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01404510052034421</v>
+        <v>-0.06661928744146602</v>
       </c>
       <c r="C77">
-        <v>0.02404962113961184</v>
+        <v>0.05783663146123161</v>
       </c>
       <c r="D77">
-        <v>0.03604961958669123</v>
+        <v>-0.01266472994775678</v>
       </c>
       <c r="E77">
-        <v>0.01935223536204179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.05126736320946548</v>
+      </c>
+      <c r="F77">
+        <v>-0.01395966193754494</v>
+      </c>
+      <c r="G77">
+        <v>0.06179565397389339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.00651649140488834</v>
+        <v>-0.04458632328579787</v>
       </c>
       <c r="C78">
-        <v>0.0224229433362193</v>
+        <v>0.04939541465758729</v>
       </c>
       <c r="D78">
-        <v>0.04061334604084097</v>
+        <v>-0.005576611817986678</v>
       </c>
       <c r="E78">
-        <v>0.006156763942802331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02341687841414705</v>
+      </c>
+      <c r="F78">
+        <v>-0.03783393078387091</v>
+      </c>
+      <c r="G78">
+        <v>0.06789805003551345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01682751356339556</v>
+        <v>-0.05789533809234517</v>
       </c>
       <c r="C80">
-        <v>0.09017778847172495</v>
+        <v>0.07015926492741248</v>
       </c>
       <c r="D80">
-        <v>0.233608760005508</v>
+        <v>-0.01016758368328554</v>
       </c>
       <c r="E80">
-        <v>-0.7787412704935033</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02648409354062739</v>
+      </c>
+      <c r="F80">
+        <v>-0.01024874825814184</v>
+      </c>
+      <c r="G80">
+        <v>0.6583524950451113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.008366991609787105</v>
+        <v>-0.1428704347685977</v>
       </c>
       <c r="C81">
-        <v>0.105125638880952</v>
+        <v>0.09081784055379265</v>
       </c>
       <c r="D81">
-        <v>0.1710378669256155</v>
+        <v>0.01572165579561152</v>
       </c>
       <c r="E81">
-        <v>-0.0102371980870845</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03623030704815803</v>
+      </c>
+      <c r="F81">
+        <v>0.1272168289705757</v>
+      </c>
+      <c r="G81">
+        <v>0.02226455727507422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1230947736085899</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.06269072124213459</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007452831664262647</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08630767194081321</v>
+      </c>
+      <c r="F82">
+        <v>0.02383278313934704</v>
+      </c>
+      <c r="G82">
+        <v>0.02641997435908128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007213188431208209</v>
+        <v>-0.0347910109264442</v>
       </c>
       <c r="C83">
-        <v>0.02091849600817376</v>
+        <v>0.02469763606435183</v>
       </c>
       <c r="D83">
-        <v>0.01896073292906222</v>
+        <v>-0.005716141414665631</v>
       </c>
       <c r="E83">
-        <v>0.00149243393531952</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02872256395950259</v>
+      </c>
+      <c r="F83">
+        <v>-0.034877812055134</v>
+      </c>
+      <c r="G83">
+        <v>0.04534421486205923</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.0191514527788148</v>
+        <v>-0.2186208884438123</v>
       </c>
       <c r="C85">
-        <v>0.1383026511194964</v>
+        <v>0.1411353071118082</v>
       </c>
       <c r="D85">
-        <v>0.2683472059515992</v>
+        <v>0.01858687644959502</v>
       </c>
       <c r="E85">
-        <v>0.01059643259840277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1004137098438186</v>
+      </c>
+      <c r="F85">
+        <v>0.1440963150312546</v>
+      </c>
+      <c r="G85">
+        <v>-0.09511295931537549</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009946541377908544</v>
+        <v>-0.0138545459094023</v>
       </c>
       <c r="C86">
-        <v>0.03362649744003735</v>
+        <v>0.02330604853932046</v>
       </c>
       <c r="D86">
-        <v>0.006110410734308435</v>
+        <v>-0.01181921791766638</v>
       </c>
       <c r="E86">
-        <v>0.0375322731731304</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04710541748669048</v>
+      </c>
+      <c r="F86">
+        <v>-0.04392294525905971</v>
+      </c>
+      <c r="G86">
+        <v>0.1412526951893616</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008636421321716138</v>
+        <v>-0.02256196589165655</v>
       </c>
       <c r="C87">
-        <v>0.0135723858071999</v>
+        <v>0.02681508918656993</v>
       </c>
       <c r="D87">
-        <v>0.0373568316948864</v>
+        <v>-0.01202583365933967</v>
       </c>
       <c r="E87">
-        <v>0.01466080327680582</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08560175077832584</v>
+      </c>
+      <c r="F87">
+        <v>-0.02222142412153481</v>
+      </c>
+      <c r="G87">
+        <v>0.09015511464389045</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.0279941879692866</v>
+        <v>-0.09234781687659031</v>
       </c>
       <c r="C88">
-        <v>0.03308145546405367</v>
+        <v>0.06654898638551569</v>
       </c>
       <c r="D88">
-        <v>0.04269688027165429</v>
+        <v>-0.02247704579363559</v>
       </c>
       <c r="E88">
-        <v>-0.001277379911350757</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01298076875840776</v>
+      </c>
+      <c r="F88">
+        <v>0.02586185355159508</v>
+      </c>
+      <c r="G88">
+        <v>0.05860866196683674</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.08160023229479907</v>
+        <v>-0.2232759668444106</v>
       </c>
       <c r="C89">
-        <v>0.3788830499917474</v>
+        <v>-0.3744121878853739</v>
       </c>
       <c r="D89">
-        <v>-0.2294060891305271</v>
+        <v>0.002602997364421307</v>
       </c>
       <c r="E89">
-        <v>-0.02135352334233177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02175506929428492</v>
+      </c>
+      <c r="F89">
+        <v>0.02274303839120167</v>
+      </c>
+      <c r="G89">
+        <v>0.03942808651615247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06244716284112128</v>
+        <v>-0.200220469872346</v>
       </c>
       <c r="C90">
-        <v>0.2935932640558488</v>
+        <v>-0.3262272320254982</v>
       </c>
       <c r="D90">
-        <v>-0.2011502639065111</v>
+        <v>0.006816260672544654</v>
       </c>
       <c r="E90">
-        <v>0.01168656362851948</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01282083470280632</v>
+      </c>
+      <c r="F90">
+        <v>0.04941823250156883</v>
+      </c>
+      <c r="G90">
+        <v>0.0197086729659611</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.008883580354776531</v>
+        <v>-0.1934844595702468</v>
       </c>
       <c r="C91">
-        <v>0.1516809164993083</v>
+        <v>0.1384603327409959</v>
       </c>
       <c r="D91">
-        <v>0.2312955216758998</v>
+        <v>0.02362941300392637</v>
       </c>
       <c r="E91">
-        <v>-0.01386234852065291</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07056804424068461</v>
+      </c>
+      <c r="F91">
+        <v>0.1515416653529804</v>
+      </c>
+      <c r="G91">
+        <v>0.01583245462084572</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02939728819716833</v>
+        <v>-0.1968231467888278</v>
       </c>
       <c r="C92">
-        <v>0.3055678453433698</v>
+        <v>-0.2624904403401546</v>
       </c>
       <c r="D92">
-        <v>-0.09816136025722044</v>
+        <v>0.04098795147809529</v>
       </c>
       <c r="E92">
-        <v>0.01555423398139806</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.02111497640277619</v>
+      </c>
+      <c r="F92">
+        <v>0.06230617917148629</v>
+      </c>
+      <c r="G92">
+        <v>0.127064235497101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06032379396975311</v>
+        <v>-0.2258064066689374</v>
       </c>
       <c r="C93">
-        <v>0.3184043292875508</v>
+        <v>-0.3244026493407348</v>
       </c>
       <c r="D93">
-        <v>-0.1882487582000449</v>
+        <v>0.01314457497760889</v>
       </c>
       <c r="E93">
-        <v>0.03775636248865818</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.002179506883149566</v>
+      </c>
+      <c r="F93">
+        <v>0.03447415747879058</v>
+      </c>
+      <c r="G93">
+        <v>0.02360955534768107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03314986581115126</v>
+        <v>-0.3175019335791352</v>
       </c>
       <c r="C94">
-        <v>0.1799962624810354</v>
+        <v>0.1712018493244191</v>
       </c>
       <c r="D94">
-        <v>0.2554587863627072</v>
+        <v>0.01853413891258403</v>
       </c>
       <c r="E94">
-        <v>0.0162786655153594</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1730066764392684</v>
+      </c>
+      <c r="F94">
+        <v>0.4799790460181891</v>
+      </c>
+      <c r="G94">
+        <v>-0.2922722895251871</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004372124754909988</v>
+        <v>-0.09855347847300765</v>
       </c>
       <c r="C95">
-        <v>0.0384447170834121</v>
+        <v>0.08645293389278301</v>
       </c>
       <c r="D95">
-        <v>0.08204911842534295</v>
+        <v>0.008702098012807399</v>
       </c>
       <c r="E95">
-        <v>0.1292968775954629</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06546350714171366</v>
+      </c>
+      <c r="F95">
+        <v>-0.1885008360485546</v>
+      </c>
+      <c r="G95">
+        <v>-0.07542260749800753</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01563303815628763</v>
+        <v>-0.1988337315863394</v>
       </c>
       <c r="C98">
-        <v>0.1656788088669466</v>
+        <v>0.04624013573166934</v>
       </c>
       <c r="D98">
-        <v>0.1168870217087051</v>
+        <v>0.01203476003892849</v>
       </c>
       <c r="E98">
-        <v>0.04738112850199359</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07028139837639057</v>
+      </c>
+      <c r="F98">
+        <v>-0.2409719178683185</v>
+      </c>
+      <c r="G98">
+        <v>-0.02214994546827933</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008797871283039778</v>
+        <v>-0.0103879873868721</v>
       </c>
       <c r="C101">
-        <v>0.0200068056362164</v>
+        <v>0.02024831443208387</v>
       </c>
       <c r="D101">
-        <v>0.003950292471338357</v>
+        <v>-0.007799619674195973</v>
       </c>
       <c r="E101">
-        <v>-0.004317634937952651</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.003943933507458562</v>
+      </c>
+      <c r="F101">
+        <v>0.01456167756655418</v>
+      </c>
+      <c r="G101">
+        <v>0.07048932865085651</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01842208234044882</v>
+        <v>-0.1187689188278468</v>
       </c>
       <c r="C102">
-        <v>0.07752382457184193</v>
+        <v>0.08267714550958927</v>
       </c>
       <c r="D102">
-        <v>0.1308615127893939</v>
+        <v>-0.001001481162583707</v>
       </c>
       <c r="E102">
-        <v>0.0003220301014472823</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03202479022956264</v>
+      </c>
+      <c r="F102">
+        <v>0.04229457127583051</v>
+      </c>
+      <c r="G102">
+        <v>0.003920516743303647</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001889239698766766</v>
+        <v>-0.003215624949028638</v>
       </c>
       <c r="C103">
-        <v>0.01049666300819768</v>
+        <v>0.003679701994170394</v>
       </c>
       <c r="D103">
-        <v>0.02231754247982153</v>
+        <v>-0.0002175570405596326</v>
       </c>
       <c r="E103">
-        <v>-0.01323549043146814</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002112705938751188</v>
+      </c>
+      <c r="F103">
+        <v>0.005264849297138997</v>
+      </c>
+      <c r="G103">
+        <v>0.01379621181481045</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9750072102271859</v>
+        <v>-0.02231276681918361</v>
       </c>
       <c r="C104">
-        <v>-0.1759801407856523</v>
+        <v>-0.03365673568083925</v>
       </c>
       <c r="D104">
-        <v>-0.01447633923247517</v>
+        <v>-0.9871913936473463</v>
       </c>
       <c r="E104">
-        <v>-0.04233147528002748</v>
+        <v>0.05234793486647652</v>
+      </c>
+      <c r="F104">
+        <v>0.04073243637512992</v>
+      </c>
+      <c r="G104">
+        <v>-0.01943993284269122</v>
       </c>
     </row>
   </sheetData>
